--- a/workshop_1/excel_pivot_workshop1_examples.xlsx
+++ b/workshop_1/excel_pivot_workshop1_examples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barba\Documents\touch_ada\exel_pivot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\excel_pivot\workshop_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1889C-AE6C-4E6A-A576-6CA62EF8AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE3CF92-C92F-4B0F-B8CB-8B5B68E1883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{46A3559E-5A9F-4F2D-9BA7-537CEBA8EA4E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{46A3559E-5A9F-4F2D-9BA7-537CEBA8EA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Rechnung" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Vorname</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>(Ein erneuter Klick kehrt zur normalen Ansicht zurück)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tipp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zuerst Datentyp auf Prozent stellen und anschliessend Wert eingeben.
+Start &gt; Zahl</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -361,14 +385,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -380,6 +400,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -414,8 +440,8 @@
       <xdr:rowOff>114304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>275762</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2371262</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95021</xdr:rowOff>
     </xdr:to>
@@ -442,6 +468,50 @@
         <a:xfrm>
           <a:off x="8624547" y="657229"/>
           <a:ext cx="1781053" cy="895117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>755495</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2271358</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6196A0-B884-48E4-A87A-4C675516469B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8789833" y="2809875"/>
+          <a:ext cx="1515863" cy="980852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E469BF1-CD96-4B76-9240-9C413F9C8F2A}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -812,9 +882,10 @@
     <col min="6" max="6" width="10.46484375" customWidth="1"/>
     <col min="7" max="7" width="10.265625" customWidth="1"/>
     <col min="8" max="8" width="10.73046875" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -837,122 +908,114 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="5">
         <v>0.35199999999999998</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>5.3</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>B2*C2</f>
         <v>1.8655999999999999</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>0.05</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f>D2*E2</f>
         <v>9.3280000000000002E-2</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <f>D2-F2</f>
         <v>1.7723199999999999</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>3.3458999999999999</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>3.6</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D4" si="0">B3*C3</f>
         <v>12.04524</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0.08</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F4" si="1">D3*E3</f>
         <v>0.96361920000000001</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>D3-F3</f>
         <v>11.0816208</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="5">
         <v>1.3480000000000001</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2.8</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>3.7744</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13">
+      <c r="E4" s="13"/>
+      <c r="F4" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f>D4-F4</f>
         <v>3.7744</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15">
         <f>SUM(D2:D4)</f>
         <v>17.68524</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15">
         <f>SUM(F2:F4)</f>
         <v>1.0568991999999999</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>SUM(H2:H4)</f>
         <v>16.6283408</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -961,26 +1024,22 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C7" s="17" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="16">
         <f>F5/D5</f>
         <v>5.9761654351312164E-2</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -988,10 +1047,8 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -999,33 +1056,52 @@
       <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>H10-H5</f>
         <v>2.1659199999998435E-2</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <f>ROUND(H5*2,1)/2</f>
         <v>16.649999999999999</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="J13" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C7:E7"/>
@@ -1040,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89FBC83-4EF2-4A95-96AF-D3B84353E940}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1167,7 +1243,7 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="9"/>
@@ -1192,7 +1268,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9"/>
@@ -1201,7 +1277,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D8" s="3"/>
-      <c r="G8" s="23"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1209,7 +1285,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1217,31 +1293,31 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G11" s="23"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G12" s="23"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G13" s="23"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="9"/>
@@ -1249,7 +1325,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G15" s="23"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
